--- a/Data/UHC-2000-OCT-2024.xlsx
+++ b/Data/UHC-2000-OCT-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geethanjali\Box\Payroll\INSURANCE OCT 2023_SEP 2024\UHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/dashboard-Tab 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDAAC8E-0CFB-4525-B974-4E45E73E47F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF9610-2E16-294D-B3E4-9CE9308E1643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37010058-85D6-4664-931C-8F8D1F13A5B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{37010058-85D6-4664-931C-8F8D1F13A5B6}"/>
   </bookViews>
   <sheets>
     <sheet name="invoice_190639553243" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,16 +1051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A253F-204D-4D2A-B5D1-093B91265883}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"0929376"</f>
         <v>0929376</v>
@@ -1138,9 +1143,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>"0924216"</f>
+        <f t="shared" ref="A3:A29" si="0">"0924216"</f>
         <v>0924216</v>
       </c>
       <c r="B3" t="s">
@@ -1172,9 +1177,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B4" t="s">
@@ -1206,9 +1211,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B5" t="s">
@@ -1240,9 +1245,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B6" t="s">
@@ -1274,9 +1279,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B7" t="s">
@@ -1308,9 +1313,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B8" t="s">
@@ -1342,9 +1347,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B9" t="s">
@@ -1376,9 +1381,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B10" t="s">
@@ -1410,9 +1415,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B11" t="s">
@@ -1444,9 +1449,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B12" t="s">
@@ -1478,9 +1483,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B13" t="s">
@@ -1512,9 +1517,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B14" t="s">
@@ -1546,9 +1551,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B15" t="s">
@@ -1583,9 +1588,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B16" t="s">
@@ -1620,9 +1625,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B17" t="s">
@@ -1654,9 +1659,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B18" t="s">
@@ -1688,9 +1693,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B19" t="s">
@@ -1722,9 +1727,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B20" t="s">
@@ -1756,9 +1761,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B21" t="s">
@@ -1790,9 +1795,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B22" t="s">
@@ -1824,9 +1829,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B23" t="s">
@@ -1861,9 +1866,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B24" t="s">
@@ -1898,9 +1903,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B25" t="s">
@@ -1935,9 +1940,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B26" t="s">
@@ -1972,9 +1977,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B27" t="s">
@@ -2006,9 +2011,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B28" t="s">
@@ -2040,9 +2045,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>"0924216"</f>
+        <f t="shared" si="0"/>
         <v>0924216</v>
       </c>
       <c r="B29" t="s">
